--- a/Data/MHV-1_Trial-2_Stage-2_Encoded_KWALDSTEIN_202011201614.xlsx
+++ b/Data/MHV-1_Trial-2_Stage-2_Encoded_KWALDSTEIN_202011201614.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\00_CS_Virus_Testing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A60599F-6300-4A9A-A028-3D2F3E2432C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEC49A6-358C-41A7-9598-6F9D97B92D57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4830" yWindow="4350" windowWidth="21600" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
   <si>
     <t>N=15</t>
   </si>
@@ -95,10 +95,7 @@
     <t>1,3,</t>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,</t>
-  </si>
-  <si>
-    <t>17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,</t>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,</t>
   </si>
 </sst>
 </file>
@@ -108,7 +105,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -129,6 +126,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -138,7 +149,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -146,17 +157,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -523,10 +562,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>14</v>
@@ -535,10 +574,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I4">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -573,10 +612,10 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -585,13 +624,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -612,7 +651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -620,23 +659,23 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" t="s">
+      <c r="F10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10">
-        <v>34.021000000000001</v>
-      </c>
-      <c r="I10">
-        <v>34.320999999999998</v>
+      <c r="H10" s="6">
+        <v>31.945</v>
+      </c>
+      <c r="I10" s="7">
+        <v>31.564</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -705,17 +744,17 @@
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="F28" t="s">
+      <c r="F28" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -745,10 +784,10 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -782,27 +821,15 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I34">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
     </row>
     <row r="35" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>40</v>
-      </c>
-      <c r="I35">
-        <v>40</v>
-      </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
     </row>
@@ -829,10 +856,10 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I38">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
